--- a/data/Game/Person.xlsx
+++ b/data/Game/Person.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96983BEF-2F89-4208-92C0-0AA5EB3C5048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96879DD7-35EB-4DE1-A9B2-C2A52E03BBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2940" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -726,12 +726,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="11" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -806,7 +806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -823,7 +823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -849,7 +849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -866,7 +866,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -883,7 +883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -900,7 +900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -917,7 +917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -951,7 +951,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -968,7 +968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -985,7 +985,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>102</v>
       </c>

--- a/data/Game/Person.xlsx
+++ b/data/Game/Person.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96879DD7-35EB-4DE1-A9B2-C2A52E03BBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A356B0-41E5-4A23-A92D-BDD0B3CA3FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Person" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Person!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Person!$A$2:$K$38</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +61,9 @@
     <t>narrator</t>
   </si>
   <si>
+    <t>EA 23.209 Patch 2</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>ケトル</t>
   </si>
   <si>
+    <t>kettle_eye</t>
+  </si>
+  <si>
     <t>quru</t>
   </si>
   <si>
@@ -332,6 +338,24 @@
   </si>
   <si>
     <t>bunny2</t>
+  </si>
+  <si>
+    <t>sorin</t>
+  </si>
+  <si>
+    <t>Sorin</t>
+  </si>
+  <si>
+    <t>ソリン</t>
+  </si>
+  <si>
+    <t>issizzle</t>
+  </si>
+  <si>
+    <t>Issizzle</t>
+  </si>
+  <si>
+    <t>イスシズル</t>
   </si>
   <si>
     <t>Alpha 11.1</t>
@@ -719,11 +743,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,584 +791,641 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I5" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>104</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>105</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
         <v>106</v>
       </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" t="s">
-        <v>112</v>
-      </c>
-      <c r="J22" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" t="s">
         <v>107</v>
       </c>
-      <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>108</v>
       </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
         <v>109</v>
       </c>
-      <c r="C33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D38" t="s">
         <v>109</v>
       </c>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" t="s">
-        <v>101</v>
+      <c r="E38" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:K38" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="EA 23.209 Patch 2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Game/Person.xlsx
+++ b/data/Game/Person.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A356B0-41E5-4A23-A92D-BDD0B3CA3FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B94CF22-8D6F-41EF-93CD-B0FFE4F59CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Person" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Person!$A$2:$K$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Person!$A$2:$K$39</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -61,307 +61,319 @@
     <t>narrator</t>
   </si>
   <si>
+    <t>EA 23.222 Patch 1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>nerun</t>
+  </si>
+  <si>
+    <t>Nerun</t>
+  </si>
+  <si>
+    <t>ネルン</t>
+  </si>
+  <si>
+    <t>The guide</t>
+  </si>
+  <si>
+    <t>ガイドの</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>雌鶏</t>
+  </si>
+  <si>
+    <t>farris</t>
+  </si>
+  <si>
+    <t>Farris</t>
+  </si>
+  <si>
+    <t>ファリス</t>
+  </si>
+  <si>
+    <t>Talesinger of Olvina</t>
+  </si>
+  <si>
+    <t>オルヴィナの唄い手</t>
+  </si>
+  <si>
+    <t>kettle</t>
+  </si>
+  <si>
+    <t>Kettle</t>
+  </si>
+  <si>
+    <t>ケトル</t>
+  </si>
+  <si>
+    <t>kettle_eye</t>
+  </si>
+  <si>
+    <t>quru</t>
+  </si>
+  <si>
+    <t>Quruitzia</t>
+  </si>
+  <si>
+    <t>クルイツゥア</t>
+  </si>
+  <si>
+    <t>corgon</t>
+  </si>
+  <si>
+    <t>Corgon</t>
+  </si>
+  <si>
+    <t>コルゴン</t>
+  </si>
+  <si>
+    <t>corgon_shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge Shadow </t>
+  </si>
+  <si>
+    <t>巨大な影</t>
+  </si>
+  <si>
+    <t>ineien</t>
+  </si>
+  <si>
+    <t>Ineien</t>
+  </si>
+  <si>
+    <t>イネイエン</t>
+  </si>
+  <si>
+    <t>ash</t>
+  </si>
+  <si>
+    <t>Ashland</t>
+  </si>
+  <si>
+    <t>エイシュランド</t>
+  </si>
+  <si>
+    <t>fiama</t>
+  </si>
+  <si>
+    <t>Fiama</t>
+  </si>
+  <si>
+    <t>フィアマ</t>
+  </si>
+  <si>
+    <t>fiama_mono</t>
+  </si>
+  <si>
+    <t>fiama_child</t>
+  </si>
+  <si>
+    <t>loytel</t>
+  </si>
+  <si>
+    <t>Loytel</t>
+  </si>
+  <si>
+    <t>ロイテル</t>
+  </si>
+  <si>
+    <t>ineien_young</t>
+  </si>
+  <si>
+    <t>isygarad</t>
+  </si>
+  <si>
+    <t>Isygarad</t>
+  </si>
+  <si>
+    <t>ガーラス</t>
+  </si>
+  <si>
+    <t>ephrond</t>
+  </si>
+  <si>
+    <t>Efrond</t>
+  </si>
+  <si>
+    <t>エフロンド</t>
+  </si>
+  <si>
+    <t>onev</t>
+  </si>
+  <si>
+    <t>Onev</t>
+  </si>
+  <si>
+    <t>オーネヴ</t>
+  </si>
+  <si>
+    <t>eluminaire</t>
+  </si>
+  <si>
+    <t>Eluminaire</t>
+  </si>
+  <si>
+    <t>エルミナレ</t>
+  </si>
+  <si>
+    <t>jonan</t>
+  </si>
+  <si>
+    <t>Jonan</t>
+  </si>
+  <si>
+    <t>ジョナン</t>
+  </si>
+  <si>
+    <t>The Lord of Mysilia</t>
+  </si>
+  <si>
+    <t>ミシリア公</t>
+  </si>
+  <si>
+    <t>lowell</t>
+  </si>
+  <si>
+    <t>Lowell</t>
+  </si>
+  <si>
+    <t>ロウェル</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>melvin</t>
+  </si>
+  <si>
+    <t>Melvin</t>
+  </si>
+  <si>
+    <t>メルヴィン</t>
+  </si>
+  <si>
+    <t>barrich</t>
+  </si>
+  <si>
+    <t>Barrich</t>
+  </si>
+  <si>
+    <t>ベーリッヒ</t>
+  </si>
+  <si>
+    <t>caldorn</t>
+  </si>
+  <si>
+    <t>Caldorn</t>
+  </si>
+  <si>
+    <t>カルドーン</t>
+  </si>
+  <si>
+    <t>fan1</t>
+  </si>
+  <si>
+    <t>Melvin's admirer</t>
+  </si>
+  <si>
+    <t>メルヴィンの崇拝者</t>
+  </si>
+  <si>
+    <t>fan2</t>
+  </si>
+  <si>
+    <t>frin</t>
+  </si>
+  <si>
+    <t>Friaune</t>
+  </si>
+  <si>
+    <t>フリアウネ</t>
+  </si>
+  <si>
+    <t>demitas</t>
+  </si>
+  <si>
+    <t>Demitas</t>
+  </si>
+  <si>
+    <t>デミタス</t>
+  </si>
+  <si>
+    <t>telessia</t>
+  </si>
+  <si>
+    <t>Telessia</t>
+  </si>
+  <si>
+    <t>テレシア</t>
+  </si>
+  <si>
+    <t>griffin</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>グリフィン</t>
+  </si>
+  <si>
+    <t>bunny1</t>
+  </si>
+  <si>
+    <t>Bunny</t>
+  </si>
+  <si>
+    <t>バニーガール</t>
+  </si>
+  <si>
+    <t>bunny2</t>
+  </si>
+  <si>
+    <t>sorin</t>
+  </si>
+  <si>
+    <t>Sorin</t>
+  </si>
+  <si>
+    <t>ソリン</t>
+  </si>
+  <si>
+    <t>issizzle</t>
+  </si>
+  <si>
+    <t>Issizzle</t>
+  </si>
+  <si>
+    <t>イスシズル</t>
+  </si>
+  <si>
+    <t>vishnu</t>
+  </si>
+  <si>
+    <t>VISHNU</t>
+  </si>
+  <si>
+    <t>VTX-09</t>
+  </si>
+  <si>
+    <t>Alpha 11.1</t>
+  </si>
+  <si>
+    <t>Alpha 20.64</t>
+  </si>
+  <si>
     <t>EA 23.209 Patch 2</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>nerun</t>
-  </si>
-  <si>
-    <t>Nerun</t>
-  </si>
-  <si>
-    <t>ネルン</t>
-  </si>
-  <si>
-    <t>The guide</t>
-  </si>
-  <si>
-    <t>ガイドの</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>雌鶏</t>
-  </si>
-  <si>
-    <t>farris</t>
-  </si>
-  <si>
-    <t>Farris</t>
-  </si>
-  <si>
-    <t>ファリス</t>
-  </si>
-  <si>
-    <t>Talesinger of Olvina</t>
-  </si>
-  <si>
-    <t>オルヴィナの唄い手</t>
-  </si>
-  <si>
-    <t>kettle</t>
-  </si>
-  <si>
-    <t>Kettle</t>
-  </si>
-  <si>
-    <t>ケトル</t>
-  </si>
-  <si>
-    <t>kettle_eye</t>
-  </si>
-  <si>
-    <t>quru</t>
-  </si>
-  <si>
-    <t>Quruitzia</t>
-  </si>
-  <si>
-    <t>クルイツゥア</t>
-  </si>
-  <si>
-    <t>corgon</t>
-  </si>
-  <si>
-    <t>Corgon</t>
-  </si>
-  <si>
-    <t>コルゴン</t>
-  </si>
-  <si>
-    <t>corgon_shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huge Shadow </t>
-  </si>
-  <si>
-    <t>巨大な影</t>
-  </si>
-  <si>
-    <t>ineien</t>
-  </si>
-  <si>
-    <t>Ineien</t>
-  </si>
-  <si>
-    <t>イネイエン</t>
-  </si>
-  <si>
-    <t>ash</t>
-  </si>
-  <si>
-    <t>Ashland</t>
-  </si>
-  <si>
-    <t>エイシュランド</t>
-  </si>
-  <si>
-    <t>fiama</t>
-  </si>
-  <si>
-    <t>Fiama</t>
-  </si>
-  <si>
-    <t>フィアマ</t>
-  </si>
-  <si>
-    <t>fiama_mono</t>
-  </si>
-  <si>
-    <t>fiama_child</t>
-  </si>
-  <si>
-    <t>loytel</t>
-  </si>
-  <si>
-    <t>Loytel</t>
-  </si>
-  <si>
-    <t>ロイテル</t>
-  </si>
-  <si>
-    <t>ineien_young</t>
-  </si>
-  <si>
-    <t>isygarad</t>
-  </si>
-  <si>
-    <t>Isygarad</t>
-  </si>
-  <si>
-    <t>ガーラス</t>
-  </si>
-  <si>
-    <t>ephrond</t>
-  </si>
-  <si>
-    <t>Efrond</t>
-  </si>
-  <si>
-    <t>エフロンド</t>
-  </si>
-  <si>
-    <t>onev</t>
-  </si>
-  <si>
-    <t>Onev</t>
-  </si>
-  <si>
-    <t>オーネヴ</t>
-  </si>
-  <si>
-    <t>eluminaire</t>
-  </si>
-  <si>
-    <t>Eluminaire</t>
-  </si>
-  <si>
-    <t>エルミナレ</t>
-  </si>
-  <si>
-    <t>jonan</t>
-  </si>
-  <si>
-    <t>Jonan</t>
-  </si>
-  <si>
-    <t>ジョナン</t>
-  </si>
-  <si>
-    <t>The Lord of Mysilia</t>
-  </si>
-  <si>
-    <t>ミシリア公</t>
-  </si>
-  <si>
-    <t>lowell</t>
-  </si>
-  <si>
-    <t>Lowell</t>
-  </si>
-  <si>
-    <t>ロウェル</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>melvin</t>
-  </si>
-  <si>
-    <t>Melvin</t>
-  </si>
-  <si>
-    <t>メルヴィン</t>
-  </si>
-  <si>
-    <t>barrich</t>
-  </si>
-  <si>
-    <t>Barrich</t>
-  </si>
-  <si>
-    <t>ベーリッヒ</t>
-  </si>
-  <si>
-    <t>caldorn</t>
-  </si>
-  <si>
-    <t>Caldorn</t>
-  </si>
-  <si>
-    <t>カルドーン</t>
-  </si>
-  <si>
-    <t>fan1</t>
-  </si>
-  <si>
-    <t>Melvin's admirer</t>
-  </si>
-  <si>
-    <t>メルヴィンの崇拝者</t>
-  </si>
-  <si>
-    <t>fan2</t>
-  </si>
-  <si>
-    <t>frin</t>
-  </si>
-  <si>
-    <t>Friaune</t>
-  </si>
-  <si>
-    <t>フリアウネ</t>
-  </si>
-  <si>
-    <t>demitas</t>
-  </si>
-  <si>
-    <t>Demitas</t>
-  </si>
-  <si>
-    <t>デミタス</t>
-  </si>
-  <si>
-    <t>telessia</t>
-  </si>
-  <si>
-    <t>Telessia</t>
-  </si>
-  <si>
-    <t>テレシア</t>
-  </si>
-  <si>
-    <t>griffin</t>
-  </si>
-  <si>
-    <t>Griffin</t>
-  </si>
-  <si>
-    <t>グリフィン</t>
-  </si>
-  <si>
-    <t>bunny1</t>
-  </si>
-  <si>
-    <t>Bunny</t>
-  </si>
-  <si>
-    <t>バニーガール</t>
-  </si>
-  <si>
-    <t>bunny2</t>
-  </si>
-  <si>
-    <t>sorin</t>
-  </si>
-  <si>
-    <t>Sorin</t>
-  </si>
-  <si>
-    <t>ソリン</t>
-  </si>
-  <si>
-    <t>issizzle</t>
-  </si>
-  <si>
-    <t>Issizzle</t>
-  </si>
-  <si>
-    <t>イスシズル</t>
-  </si>
-  <si>
-    <t>Alpha 11.1</t>
-  </si>
-  <si>
-    <t>Alpha 20.64</t>
   </si>
   <si>
     <t>Alpha 21.6</t>
@@ -744,11 +756,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -810,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -822,7 +834,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -836,10 +848,10 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
@@ -853,7 +865,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -879,7 +891,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -891,12 +903,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -913,7 +925,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -930,7 +942,7 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -947,7 +959,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
@@ -964,7 +976,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
@@ -981,7 +993,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -998,7 +1010,7 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
         <v>47</v>
@@ -1015,7 +1027,7 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
         <v>47</v>
@@ -1032,7 +1044,7 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -1049,7 +1061,7 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
@@ -1066,7 +1078,7 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -1083,7 +1095,7 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
@@ -1100,7 +1112,7 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
@@ -1117,7 +1129,7 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
@@ -1134,7 +1146,7 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
         <v>65</v>
@@ -1151,7 +1163,7 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -1163,7 +1175,7 @@
         <v>69</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J23" t="s">
         <v>70</v>
@@ -1177,7 +1189,7 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
         <v>73</v>
@@ -1194,7 +1206,7 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -1202,7 +1214,7 @@
         <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
         <v>77</v>
@@ -1219,7 +1231,7 @@
         <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
         <v>80</v>
@@ -1236,7 +1248,7 @@
         <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
         <v>83</v>
@@ -1253,7 +1265,7 @@
         <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
         <v>86</v>
@@ -1270,7 +1282,7 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
         <v>86</v>
@@ -1287,7 +1299,7 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
         <v>90</v>
@@ -1304,7 +1316,7 @@
         <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
         <v>93</v>
@@ -1316,12 +1328,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
         <v>96</v>
@@ -1333,12 +1345,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
         <v>99</v>
@@ -1350,12 +1362,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
         <v>102</v>
@@ -1367,12 +1379,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
         <v>102</v>
@@ -1384,12 +1396,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
         <v>106</v>
@@ -1401,12 +1413,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
         <v>109</v>
@@ -1418,11 +1430,37 @@
         <v>110</v>
       </c>
     </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K39" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:K38" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A2:K39" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="EA 23.209 Patch 2"/>
+        <filter val="EA 23.222 Patch 1"/>
       </filters>
     </filterColumn>
   </autoFilter>
